--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Ephb4</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H2">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I2">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J2">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N2">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O2">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P2">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q2">
-        <v>10.74311442887625</v>
+        <v>10.915346485128</v>
       </c>
       <c r="R2">
-        <v>42.97245771550499</v>
+        <v>43.661385940512</v>
       </c>
       <c r="S2">
-        <v>0.1196694917197777</v>
+        <v>0.1652009121089925</v>
       </c>
       <c r="T2">
-        <v>0.08955231716312516</v>
+        <v>0.1374797042210913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H3">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I3">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J3">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>11.269592</v>
       </c>
       <c r="O3">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P3">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q3">
-        <v>0.8347856360733332</v>
+        <v>1.145818862212</v>
       </c>
       <c r="R3">
-        <v>5.008713816439999</v>
+        <v>6.874913173272001</v>
       </c>
       <c r="S3">
-        <v>0.009298827953963876</v>
+        <v>0.01734166857708234</v>
       </c>
       <c r="T3">
-        <v>0.01043789329525182</v>
+        <v>0.0216475269679915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H4">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I4">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J4">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N4">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O4">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P4">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q4">
-        <v>0.007885639486666667</v>
+        <v>1.31308885086</v>
       </c>
       <c r="R4">
-        <v>0.04731383692</v>
+        <v>5.25235540344</v>
       </c>
       <c r="S4">
-        <v>8.783956230777285E-05</v>
+        <v>0.0198732560746263</v>
       </c>
       <c r="T4">
-        <v>9.859952060725248E-05</v>
+        <v>0.01653846417777076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +729,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H5">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I5">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J5">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N5">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O5">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P5">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q5">
-        <v>1.10911349750125</v>
+        <v>0.018995660005</v>
       </c>
       <c r="R5">
-        <v>4.436453990005</v>
+        <v>0.11397396003</v>
       </c>
       <c r="S5">
-        <v>0.01235461554321385</v>
+        <v>0.0002874943423201385</v>
       </c>
       <c r="T5">
-        <v>0.009245334242290522</v>
+        <v>0.0003588778957951497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +791,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H6">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I6">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J6">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N6">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O6">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P6">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q6">
-        <v>5.4950559799225</v>
+        <v>0.004225855680500001</v>
       </c>
       <c r="R6">
-        <v>32.970335879535</v>
+        <v>0.025355134083</v>
       </c>
       <c r="S6">
-        <v>0.06121042091123253</v>
+        <v>6.395721966414343E-05</v>
       </c>
       <c r="T6">
-        <v>0.06870842703961891</v>
+        <v>7.983750994451537E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +859,10 @@
         <v>0.662143</v>
       </c>
       <c r="I7">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J7">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N7">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O7">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P7">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q7">
-        <v>10.6702036881645</v>
+        <v>7.898398378362667</v>
       </c>
       <c r="R7">
-        <v>64.02122212898699</v>
+        <v>47.390390270176</v>
       </c>
       <c r="S7">
-        <v>0.1188573258120559</v>
+        <v>0.1195401921582152</v>
       </c>
       <c r="T7">
-        <v>0.1334168231014933</v>
+        <v>0.1492214847724432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +921,10 @@
         <v>0.662143</v>
       </c>
       <c r="I8">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J8">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +939,10 @@
         <v>11.269592</v>
       </c>
       <c r="O8">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P8">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q8">
         <v>0.8291201617395556</v>
@@ -948,10 +951,10 @@
         <v>7.462081455656</v>
       </c>
       <c r="S8">
-        <v>0.00923571921223324</v>
+        <v>0.01254851663700749</v>
       </c>
       <c r="T8">
-        <v>0.01555058101721906</v>
+        <v>0.02349638540551667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,40 +983,40 @@
         <v>0.662143</v>
       </c>
       <c r="I9">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J9">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N9">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O9">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P9">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q9">
-        <v>0.007832121689777779</v>
+        <v>0.9501575478533334</v>
       </c>
       <c r="R9">
-        <v>0.07048909520799999</v>
+        <v>5.700945287120001</v>
       </c>
       <c r="S9">
-        <v>8.724341790346108E-05</v>
+        <v>0.01438038579595063</v>
       </c>
       <c r="T9">
-        <v>0.0001468955267208495</v>
+        <v>0.01795097097746162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,40 +1045,40 @@
         <v>0.662143</v>
       </c>
       <c r="I10">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J10">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N10">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O10">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P10">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q10">
-        <v>1.101586230881167</v>
+        <v>0.01374535296555556</v>
       </c>
       <c r="R10">
-        <v>6.609517385287</v>
+        <v>0.12370817669</v>
       </c>
       <c r="S10">
-        <v>0.01227076796098543</v>
+        <v>0.0002080323194745746</v>
       </c>
       <c r="T10">
-        <v>0.01377388282283066</v>
+        <v>0.0003895287145544115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,40 +1107,40 @@
         <v>0.662143</v>
       </c>
       <c r="I11">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J11">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N11">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O11">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P11">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q11">
-        <v>5.457762455367668</v>
+        <v>0.003057849945444445</v>
       </c>
       <c r="R11">
-        <v>49.11986209830901</v>
+        <v>0.027520649509</v>
       </c>
       <c r="S11">
-        <v>0.06079500160638736</v>
+        <v>4.627975857368594E-05</v>
       </c>
       <c r="T11">
-        <v>0.1023631810579361</v>
+        <v>8.665622203620942E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H12">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I12">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J12">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N12">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O12">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P12">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q12">
-        <v>3.96871637142</v>
+        <v>2.493100366949333</v>
       </c>
       <c r="R12">
-        <v>23.81229822852</v>
+        <v>14.958602201696</v>
       </c>
       <c r="S12">
-        <v>0.04420824837080982</v>
+        <v>0.03773242151868018</v>
       </c>
       <c r="T12">
-        <v>0.0496235634801482</v>
+        <v>0.04710121224855499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H13">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I13">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J13">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1249,22 @@
         <v>11.269592</v>
       </c>
       <c r="O13">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P13">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q13">
-        <v>0.3083861241955556</v>
+        <v>0.2617087263084444</v>
       </c>
       <c r="R13">
-        <v>2.77547511776</v>
+        <v>2.355378536776</v>
       </c>
       <c r="S13">
-        <v>0.003435168728792425</v>
+        <v>0.003960893073980208</v>
       </c>
       <c r="T13">
-        <v>0.005783942581769665</v>
+        <v>0.00741654754170806</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H14">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I14">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J14">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N14">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O14">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P14">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q14">
-        <v>0.002913109297777778</v>
+        <v>0.2999137315866667</v>
       </c>
       <c r="R14">
-        <v>0.02621798368</v>
+        <v>1.79948238952</v>
       </c>
       <c r="S14">
-        <v>3.244965054567427E-05</v>
+        <v>0.004539115829225817</v>
       </c>
       <c r="T14">
-        <v>5.463688405799175E-05</v>
+        <v>0.005666157895201506</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,46 +1349,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H15">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I15">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J15">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N15">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O15">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P15">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q15">
-        <v>0.4097281960866667</v>
+        <v>0.004338670054444445</v>
       </c>
       <c r="R15">
-        <v>2.45836917652</v>
+        <v>0.03904803049</v>
       </c>
       <c r="S15">
-        <v>0.004564036368928601</v>
+        <v>6.566463568616525E-05</v>
       </c>
       <c r="T15">
-        <v>0.005123110659792123</v>
+        <v>0.0001229533045399795</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H16">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I16">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J16">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N16">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O16">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P16">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q16">
-        <v>2.029981042626667</v>
+        <v>0.0009651990765555556</v>
       </c>
       <c r="R16">
-        <v>18.26982938364</v>
+        <v>0.008686791689</v>
       </c>
       <c r="S16">
-        <v>0.02261232542762074</v>
+        <v>1.46080353959433E-05</v>
       </c>
       <c r="T16">
-        <v>0.03807335308377268</v>
+        <v>2.735271742544115E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H17">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I17">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J17">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N17">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O17">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P17">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q17">
-        <v>27.63864971126324</v>
+        <v>26.61583818492799</v>
       </c>
       <c r="R17">
-        <v>110.554598845053</v>
+        <v>106.463352739712</v>
       </c>
       <c r="S17">
-        <v>0.3078719103910564</v>
+        <v>0.4028237445953962</v>
       </c>
       <c r="T17">
-        <v>0.2303899061384627</v>
+        <v>0.3352287136506247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H18">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I18">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J18">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1559,22 @@
         <v>11.269592</v>
       </c>
       <c r="O18">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P18">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q18">
-        <v>2.147640512644</v>
+        <v>2.793949735578666</v>
       </c>
       <c r="R18">
-        <v>12.885843075864</v>
+        <v>16.763698413472</v>
       </c>
       <c r="S18">
-        <v>0.02392295551224002</v>
+        <v>0.04228569796965648</v>
       </c>
       <c r="T18">
-        <v>0.0268534118686833</v>
+        <v>0.05278504678426342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,13 +1582,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1594,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H19">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I19">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J19">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N19">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O19">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P19">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q19">
-        <v>0.020287266692</v>
+        <v>3.20181868936</v>
       </c>
       <c r="R19">
-        <v>0.121723600152</v>
+        <v>12.80727475744</v>
       </c>
       <c r="S19">
-        <v>0.0002259835273549409</v>
+        <v>0.0484586878309881</v>
       </c>
       <c r="T19">
-        <v>0.0002536655110400225</v>
+        <v>0.04032717486178937</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1656,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H20">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I20">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J20">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N20">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O20">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P20">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q20">
-        <v>2.85339969618825</v>
+        <v>0.04631876904666666</v>
       </c>
       <c r="R20">
-        <v>11.413598784753</v>
+        <v>0.27791261428</v>
       </c>
       <c r="S20">
-        <v>0.03178453451062551</v>
+        <v>0.0007010224462137512</v>
       </c>
       <c r="T20">
-        <v>0.02378533304079718</v>
+        <v>0.0008750831698879545</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,46 +1721,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H21">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I21">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J21">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01385433333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.041563</v>
+      </c>
+      <c r="O21">
+        <v>0.000315421783233405</v>
+      </c>
+      <c r="P21">
+        <v>0.0004533532669298726</v>
+      </c>
+      <c r="Q21">
+        <v>0.01030427125133333</v>
+      </c>
+      <c r="R21">
+        <v>0.061825627508</v>
+      </c>
+      <c r="S21">
+        <v>0.0001559524483861379</v>
+      </c>
+      <c r="T21">
+        <v>0.0001946747406200988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.165128</v>
+      </c>
+      <c r="H22">
+        <v>0.495384</v>
+      </c>
+      <c r="I22">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J22">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>35.785616</v>
+      </c>
+      <c r="N22">
+        <v>71.57123199999999</v>
+      </c>
+      <c r="O22">
+        <v>0.8147315746812694</v>
+      </c>
+      <c r="P22">
+        <v>0.7806715551186352</v>
+      </c>
+      <c r="Q22">
+        <v>5.909207198848</v>
+      </c>
+      <c r="R22">
+        <v>35.45524319308799</v>
+      </c>
+      <c r="S22">
+        <v>0.08943430429998545</v>
+      </c>
+      <c r="T22">
+        <v>0.111640440225921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.165128</v>
+      </c>
+      <c r="H23">
+        <v>0.495384</v>
+      </c>
+      <c r="I23">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J23">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.727721</v>
-      </c>
-      <c r="N21">
-        <v>74.18316300000001</v>
-      </c>
-      <c r="O21">
-        <v>0.3020928817572056</v>
-      </c>
-      <c r="P21">
-        <v>0.3859101031457101</v>
-      </c>
-      <c r="Q21">
-        <v>14.1370482813285</v>
-      </c>
-      <c r="R21">
-        <v>84.82228968797101</v>
-      </c>
-      <c r="S21">
-        <v>0.157475133811965</v>
-      </c>
-      <c r="T21">
-        <v>0.1767651419643824</v>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.756530666666666</v>
+      </c>
+      <c r="N23">
+        <v>11.269592</v>
+      </c>
+      <c r="O23">
+        <v>0.08552498147277421</v>
+      </c>
+      <c r="P23">
+        <v>0.1229243882820479</v>
+      </c>
+      <c r="Q23">
+        <v>0.6203083959253333</v>
+      </c>
+      <c r="R23">
+        <v>5.582775563327999</v>
+      </c>
+      <c r="S23">
+        <v>0.009388205215047685</v>
+      </c>
+      <c r="T23">
+        <v>0.01757888158256822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.165128</v>
+      </c>
+      <c r="H24">
+        <v>0.495384</v>
+      </c>
+      <c r="I24">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J24">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.30492</v>
+      </c>
+      <c r="N24">
+        <v>8.60984</v>
+      </c>
+      <c r="O24">
+        <v>0.09801016840053531</v>
+      </c>
+      <c r="P24">
+        <v>0.09391283333117181</v>
+      </c>
+      <c r="Q24">
+        <v>0.71086282976</v>
+      </c>
+      <c r="R24">
+        <v>4.26517697856</v>
+      </c>
+      <c r="S24">
+        <v>0.01075872286974446</v>
+      </c>
+      <c r="T24">
+        <v>0.01343006541894855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.165128</v>
+      </c>
+      <c r="H25">
+        <v>0.495384</v>
+      </c>
+      <c r="I25">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J25">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.06227666666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.18683</v>
+      </c>
+      <c r="O25">
+        <v>0.001417853662187452</v>
+      </c>
+      <c r="P25">
+        <v>0.002037870001215217</v>
+      </c>
+      <c r="Q25">
+        <v>0.01028362141333333</v>
+      </c>
+      <c r="R25">
+        <v>0.09255259271999999</v>
+      </c>
+      <c r="S25">
+        <v>0.000155639918492822</v>
+      </c>
+      <c r="T25">
+        <v>0.000291426916437722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.165128</v>
+      </c>
+      <c r="H26">
+        <v>0.495384</v>
+      </c>
+      <c r="I26">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J26">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01385433333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.041563</v>
+      </c>
+      <c r="O26">
+        <v>0.000315421783233405</v>
+      </c>
+      <c r="P26">
+        <v>0.0004533532669298726</v>
+      </c>
+      <c r="Q26">
+        <v>0.002287738354666667</v>
+      </c>
+      <c r="R26">
+        <v>0.020589645192</v>
+      </c>
+      <c r="S26">
+        <v>3.462432121349441E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.483207690360778E-05</v>
       </c>
     </row>
   </sheetData>
